--- a/30_days_Python_chethankumar.xlsx
+++ b/30_days_Python_chethankumar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hchethankumar/Desktop/python_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066966D-4C04-CB4B-AA72-C798A8B19552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2428B448-E28F-7849-A909-E63D23D76B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{AE8D307C-C6D0-134B-B97D-AD2128474A7A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>[DAY4 LINKEDIN_LINK]</t>
+  </si>
+  <si>
+    <t>[DAY5 LINKED_LINK]</t>
   </si>
 </sst>
 </file>
@@ -507,7 +510,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,6 +655,9 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
@@ -665,6 +671,7 @@
     <hyperlink ref="G2" r:id="rId4" xr:uid="{8F4A8D47-29E6-9045-84A3-2C6395F4F919}"/>
     <hyperlink ref="G3:G6" r:id="rId5" display="30daysPythonchellange" xr:uid="{81E948C4-8FD4-E14A-99F7-6E4EE1C7D797}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{83AE7BFF-9063-C94A-ABD2-9112FA488E9E}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{D1C8AD05-B110-6B47-B37E-7FCF52EA0E91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/30_days_Python_chethankumar.xlsx
+++ b/30_days_Python_chethankumar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hchethankumar/Desktop/python_workspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2428B448-E28F-7849-A909-E63D23D76B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C26F95-2302-274D-A6E3-7FC929AD6C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14900" xr2:uid="{AE8D307C-C6D0-134B-B97D-AD2128474A7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{AE8D307C-C6D0-134B-B97D-AD2128474A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Day</t>
   </si>
@@ -108,13 +108,40 @@
   </si>
   <si>
     <t>[DAY5 LINKED_LINK]</t>
+  </si>
+  <si>
+    <t>Day-6(MON)</t>
+  </si>
+  <si>
+    <t>Day-7(TUE)</t>
+  </si>
+  <si>
+    <t>Day-8(WED)</t>
+  </si>
+  <si>
+    <t>[DAY6LINKEDINLINK]</t>
+  </si>
+  <si>
+    <t>[DAY7LINKEDINLINK]</t>
+  </si>
+  <si>
+    <t>[DAY8LINKEDINLINK]</t>
+  </si>
+  <si>
+    <t>Reading/writing files, handling text and CSV</t>
+  </si>
+  <si>
+    <t>Importing modules (math, random), creating custom modules</t>
+  </si>
+  <si>
+    <t>Classes, objects, methods, attributes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +171,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -166,12 +199,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -507,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A04388-1BE0-DA4F-91CD-BDF61187D3DE}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,6 +696,75 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45810</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45811</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45812</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -672,6 +775,11 @@
     <hyperlink ref="G3:G6" r:id="rId5" display="30daysPythonchellange" xr:uid="{81E948C4-8FD4-E14A-99F7-6E4EE1C7D797}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{83AE7BFF-9063-C94A-ABD2-9112FA488E9E}"/>
     <hyperlink ref="F6" r:id="rId7" xr:uid="{D1C8AD05-B110-6B47-B37E-7FCF52EA0E91}"/>
+    <hyperlink ref="G7" r:id="rId8" xr:uid="{D037FFB2-ED77-E64A-952F-139F95C51FAB}"/>
+    <hyperlink ref="G8:G9" r:id="rId9" display="30daysPythonchellange" xr:uid="{9742A4B5-D02F-2F40-BC56-64C41B365CD8}"/>
+    <hyperlink ref="F7" r:id="rId10" xr:uid="{D65572F7-36D9-8D4F-B3CD-34B8422A73C4}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{8FE3FC40-0C04-344D-85EF-8A67B373D2D1}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{B43B6CFC-C0BB-3A45-9CC0-517A34B88564}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
